--- a/src/test/doc/shiro/客户权限测试账号.xlsx
+++ b/src/test/doc/shiro/客户权限测试账号.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
     <t>总经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色管理</t>
   </si>
   <si>
@@ -281,13 +277,333 @@
   </si>
   <si>
     <t>htgl</t>
+  </si>
+  <si>
+    <t>每日成交业绩统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅客服对接业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接待统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+接待客户及业绩统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接待统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+每日登门统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接待统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+登门出单统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业绩统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+机构业绩统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业绩统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+客服业绩统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业绩统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+接待业绩统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业绩统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+个人业绩排名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+客户统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+筛选客户类型统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售日报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+销售日报表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售日报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+当日刷卡定金明细表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售日报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+出库明细统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售日报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+赠品明细统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +621,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -407,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -434,6 +757,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,19 +1071,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M43"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="6" width="22.25" style="1" customWidth="1"/>
     <col min="7" max="8" width="13.5" style="1" customWidth="1"/>
@@ -795,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>9</v>
@@ -809,10 +1140,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -829,10 +1160,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -849,10 +1180,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -869,10 +1200,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -889,14 +1220,14 @@
         <v>17</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -911,15 +1242,15 @@
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -933,15 +1264,15 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2"/>
       <c r="I9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -951,10 +1282,10 @@
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -962,7 +1293,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -971,13 +1302,13 @@
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -985,7 +1316,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -993,13 +1324,13 @@
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1015,23 +1346,23 @@
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1039,23 +1370,23 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1063,23 +1394,23 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1087,23 +1418,23 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1111,23 +1442,23 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1135,36 +1466,36 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1174,17 +1505,17 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1194,17 +1525,17 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1214,17 +1545,17 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1234,22 +1565,22 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>21</v>
+      <c r="C23" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1258,22 +1589,20 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>37</v>
+    <row r="24" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1281,21 +1610,19 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="5" t="s">
-        <v>38</v>
+      <c r="L24" s="10"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1303,21 +1630,19 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
+      <c r="L25" s="10"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1325,21 +1650,19 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="5" t="s">
-        <v>39</v>
+      <c r="L26" s="10"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1347,21 +1670,19 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
-        <v>40</v>
+      <c r="L27" s="10"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1369,162 +1690,468 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="14" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
+      <c r="C39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+      <c r="C41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="F44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="14" t="s">
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D45" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D31" s="2" t="s">
+      <c r="E45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="F45" s="11">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D46" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="11">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="D32" s="12" t="s">
+      <c r="E46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="F46" s="11">
+        <v>123457</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D47" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="11">
-        <v>123457</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="D33" s="12" t="s">
+      <c r="E47" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="11">
+        <v>123458</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D48" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="11">
-        <v>123458</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D34" s="12" t="s">
+      <c r="F48" s="11">
+        <v>123459</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D49" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="11">
+        <v>123460</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="11">
-        <v>123459</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="D35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="11">
-        <v>123460</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="D36" s="12" t="s">
+      <c r="F50" s="11">
+        <v>123461</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E51" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="11">
-        <v>123461</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="D37" s="12" t="s">
+      <c r="F51" s="11">
+        <v>123462</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E52" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="11">
-        <v>123462</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D38" s="12" t="s">
+      <c r="F52" s="11">
+        <v>123463</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E53" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="11">
-        <v>123463</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="12" t="s">
+      <c r="F53" s="11">
+        <v>123464</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E54" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="11">
-        <v>123464</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="D40" s="12" t="s">
+      <c r="F54" s="11">
+        <v>123465</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D55" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E55" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="11">
-        <v>123465</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="D41" s="12" t="s">
+      <c r="F55" s="11">
+        <v>123466</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="11">
-        <v>123466</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D42" s="12" t="s">
+      <c r="F56" s="11">
+        <v>123467</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E57" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="11">
-        <v>123467</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="11">
+      <c r="F57" s="11">
         <v>123468</v>
       </c>
     </row>

--- a/src/test/doc/shiro/客户权限测试账号.xlsx
+++ b/src/test/doc/shiro/客户权限测试账号.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="87">
   <si>
     <t>总经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,15 +249,6 @@
     <t>fzjl2</t>
   </si>
   <si>
-    <t>hygl</t>
-  </si>
-  <si>
-    <t>hycw</t>
-  </si>
-  <si>
-    <t>hykf</t>
-  </si>
-  <si>
     <t>hywjs</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
   </si>
   <si>
     <t>jdzg2</t>
-  </si>
-  <si>
-    <t>scb</t>
   </si>
   <si>
     <t>htgl</t>
@@ -596,6 +584,22 @@
       <t xml:space="preserve">
 赠品明细统计</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hykf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hycw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hygl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,9 +1077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1574,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>40</v>
@@ -1596,7 +1600,7 @@
     <row r="24" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>40</v>
@@ -1616,7 +1620,7 @@
     <row r="25" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>40</v>
@@ -1636,7 +1640,7 @@
     <row r="26" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>40</v>
@@ -1656,7 +1660,7 @@
     <row r="27" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>40</v>
@@ -1676,7 +1680,7 @@
     <row r="28" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>40</v>
@@ -1696,7 +1700,7 @@
     <row r="29" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>40</v>
@@ -1716,7 +1720,7 @@
     <row r="30" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>40</v>
@@ -1736,7 +1740,7 @@
     <row r="31" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>40</v>
@@ -1756,7 +1760,7 @@
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>40</v>
@@ -1776,7 +1780,7 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>40</v>
@@ -1796,7 +1800,7 @@
     <row r="34" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
       <c r="C34" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>40</v>
@@ -1820,7 +1824,7 @@
     <row r="35" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>40</v>
@@ -1844,7 +1848,7 @@
     <row r="36" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
       <c r="C36" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>40</v>
@@ -1868,7 +1872,7 @@
     <row r="37" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>40</v>
@@ -1882,7 +1886,9 @@
       <c r="G37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2031,7 +2037,7 @@
         <v>50</v>
       </c>
       <c r="F46" s="11">
-        <v>123457</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
@@ -2042,7 +2048,7 @@
         <v>61</v>
       </c>
       <c r="F47" s="11">
-        <v>123458</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
@@ -2050,10 +2056,10 @@
         <v>52</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F48" s="11">
-        <v>123459</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
@@ -2061,10 +2067,10 @@
         <v>42</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F49" s="11">
-        <v>123460</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.3">
@@ -2072,10 +2078,10 @@
         <v>53</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F50" s="11">
-        <v>123461</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
@@ -2083,10 +2089,10 @@
         <v>54</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F51" s="11">
-        <v>123462</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.3">
@@ -2094,10 +2100,10 @@
         <v>55</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F52" s="11">
-        <v>123463</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
@@ -2105,10 +2111,10 @@
         <v>56</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F53" s="11">
-        <v>123464</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.3">
@@ -2116,10 +2122,10 @@
         <v>57</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F54" s="11">
-        <v>123465</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
@@ -2127,10 +2133,10 @@
         <v>58</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F55" s="11">
-        <v>123466</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.3">
@@ -2138,10 +2144,10 @@
         <v>59</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F56" s="11">
-        <v>123467</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
@@ -2149,10 +2155,10 @@
         <v>60</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F57" s="11">
-        <v>123468</v>
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
